--- a/Tools/LIFEnet/NXr_test_scenario.xlsx
+++ b/Tools/LIFEnet/NXr_test_scenario.xlsx
@@ -11834,7 +11834,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
